--- a/data-raw/refData/BockerstettGut.xlsx
+++ b/data-raw/refData/BockerstettGut.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\Spatial\IPMN\nmf_spatial\nmf_UQ_IPMN\allpairs_NOscale\gene_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inserm\Documents\Github\CancerRNASig\data-raw\refData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4444C878-E919-42AA-B8B0-5C88D84CFCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E9698B-3B1D-4E8D-A135-DCD999670DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3105" windowWidth="27075" windowHeight="15345"/>
+    <workbookView xWindow="14016" yWindow="4200" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BockerstettGut" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>gene</t>
   </si>
@@ -46,9 +51,6 @@
     <t>Muc6</t>
   </si>
   <si>
-    <t>Mucous Neck1</t>
-  </si>
-  <si>
     <t>Foveolar2</t>
   </si>
   <si>
@@ -76,9 +78,6 @@
     <t>Atp4a</t>
   </si>
   <si>
-    <t>Mucous Neck 2</t>
-  </si>
-  <si>
     <t>Chief1</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>Acta2</t>
   </si>
   <si>
-    <t>OSEF</t>
-  </si>
-  <si>
     <t>Myl9</t>
   </si>
   <si>
@@ -152,12 +148,36 @@
   </si>
   <si>
     <t>Ighm</t>
+  </si>
+  <si>
+    <t>Mucous_Neck1</t>
+  </si>
+  <si>
+    <t>Mucous_Neck2</t>
+  </si>
+  <si>
+    <t>Smooth_muscle</t>
+  </si>
+  <si>
+    <t>Endothelial</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>Neuroendocrine</t>
+  </si>
+  <si>
+    <t>Tcells-Bcells1</t>
+  </si>
+  <si>
+    <t>Tcells-Bcells2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,14 +1011,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1050,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1061,10 +1083,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1072,21 +1094,21 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1094,65 +1116,65 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1160,282 +1182,282 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
       <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
